--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_2_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "Travel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +92,464 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001_20001_40001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001_0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_20001_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_20003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_20004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_20005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_20006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40003</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40004</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>40005</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -123,6 +569,13 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -157,7 +610,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +625,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -512,27 +976,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -541,12 +1006,12 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="6"/>
@@ -555,1080 +1020,1355 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5">
         <v>1001</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12"/>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13"/>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14"/>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16"/>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17"/>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47"/>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1644,26 +2384,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +2429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -122,6 +122,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -137,6 +138,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -158,6 +160,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -173,6 +176,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -194,6 +198,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -209,6 +214,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -230,6 +236,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -245,6 +252,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -266,6 +274,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -281,6 +290,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -302,6 +312,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -317,6 +328,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -338,6 +350,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -353,6 +366,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -382,6 +396,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_0</t>
     </r>
@@ -395,6 +410,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_0</t>
     </r>
@@ -408,6 +424,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_0</t>
     </r>
@@ -421,6 +438,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_0</t>
     </r>
@@ -434,6 +452,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_0</t>
     </r>
@@ -447,6 +466,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -468,6 +488,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -489,6 +510,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -510,6 +532,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -531,6 +554,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -980,7 +1004,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
@@ -1054,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
@@ -1064,7 +1088,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -1074,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
@@ -1084,7 +1108,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
@@ -1094,7 +1118,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
@@ -1104,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
@@ -1114,7 +1138,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
@@ -1124,7 +1148,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
@@ -1134,7 +1158,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
@@ -1144,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
@@ -1154,7 +1178,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
@@ -1164,7 +1188,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
@@ -1174,7 +1198,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
@@ -1184,7 +1208,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
@@ -1194,7 +1218,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
@@ -1204,7 +1228,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
@@ -1214,7 +1238,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
@@ -1224,7 +1248,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="5">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
@@ -1234,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="5">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>

--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -565,6 +565,187 @@
         <family val="2"/>
       </rPr>
       <t>40005</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜汤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧猪蹄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠粉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>油布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银针</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>簪子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报时妆奁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>送子观音</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红绸子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂毛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨衣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30001_2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_40001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30002_20005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30003_20006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30008_20003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30003_20006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -602,8 +783,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,13 +804,40 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -634,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +876,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1001,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1074,78 +1292,78 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="A6" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5">
         <v>3</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
@@ -1154,18 +1372,18 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
+      <c r="A14" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
@@ -1175,7 +1393,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -1185,27 +1403,27 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>38</v>
+      <c r="A19" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -1215,7 +1433,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1225,27 +1443,27 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5">
         <v>3</v>
@@ -1255,7 +1473,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -1264,82 +1482,77 @@
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>9</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8</v>
+      </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
+      <c r="A30"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8"/>
+      <c r="A31"/>
+      <c r="B31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1350,8 +1563,12 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34">
+        <v>20001</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1361,8 +1578,12 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35">
+        <v>20002</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1372,8 +1593,12 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36">
+        <v>20003</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1383,8 +1608,12 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37">
+        <v>20004</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1394,8 +1623,12 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38">
+        <v>20005</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1405,8 +1638,12 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39">
+        <v>20006</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1415,146 +1652,238 @@
       <c r="H39" s="9"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>30001</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>30002</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>30003</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>30004</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>30005</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>30006</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>30007</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>30008</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>40001</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40002</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40003</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>40004</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>40005</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1568,833 +1897,848 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
-      <c r="B72"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
+      <c r="B73"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
-      <c r="B74"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
+      <c r="B75"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
-      <c r="B76"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
+      <c r="B77"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
-      <c r="B78"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
+      <c r="B79"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
-      <c r="B80"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
+      <c r="B81"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
-      <c r="B82"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
+      <c r="B83"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
-      <c r="B84"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
+      <c r="B85"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
-      <c r="B86"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
+      <c r="B87"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
-      <c r="B88"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
+      <c r="B89"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
-      <c r="B90"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
+      <c r="B91"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
-      <c r="B92"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
+      <c r="B93"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
-      <c r="B94"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
+      <c r="B95"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
-      <c r="B96"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
+      <c r="B97"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
-      <c r="B98"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
+      <c r="B99"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
-      <c r="B100"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
+      <c r="B101"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
-      <c r="B102"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
+      <c r="B103"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
-      <c r="B104"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
+      <c r="B105"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
-      <c r="B106"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
+      <c r="B107"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
-      <c r="B108"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
+      <c r="B109"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
-      <c r="B110"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
+      <c r="B111"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
-      <c r="B112"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
+      <c r="B113"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
-      <c r="B114"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
+      <c r="B115"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
-      <c r="B116"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
+      <c r="B117"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
-      <c r="B118"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
+      <c r="B119"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
-      <c r="B120"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
+      <c r="B121"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
-      <c r="B122"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
+      <c r="B123"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
-      <c r="B124"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
+      <c r="B125"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
-      <c r="B126"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
+      <c r="B127"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
-      <c r="B128"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
+      <c r="B129"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
-      <c r="B130"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
+      <c r="B131"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
-      <c r="B132"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
+      <c r="B133"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
-      <c r="B134"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
+      <c r="B135"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
-      <c r="B136"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
+      <c r="B137"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
-      <c r="B138"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
+      <c r="B139"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
-      <c r="B140"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
+      <c r="B141"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
-      <c r="B142"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
+      <c r="B143"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
-      <c r="B144"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
+      <c r="B145"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
-      <c r="B146"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
+      <c r="B147"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
-      <c r="B148"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
+      <c r="B149"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
-      <c r="B150"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
+      <c r="B151"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
-      <c r="B152"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
+      <c r="B153"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
-      <c r="B154"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
+      <c r="B155"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
-      <c r="B156"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
+      <c r="B157"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
-      <c r="B158"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
+      <c r="B159"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
-      <c r="B160"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
+      <c r="B161"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
-      <c r="B162"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
+      <c r="B163"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
-      <c r="B164"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
+      <c r="B165"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
-      <c r="B166"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
+      <c r="B167"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
-      <c r="B168"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
+      <c r="B169"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
-      <c r="B170"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
+      <c r="B171"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
-      <c r="B172"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
+      <c r="B173"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
-      <c r="B174"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
+      <c r="B175"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
-      <c r="B176"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
+      <c r="B177"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
-      <c r="B178"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
+      <c r="B179"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
-      <c r="B180"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
+      <c r="B181"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
-      <c r="B182"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
+      <c r="B183"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
-      <c r="B184"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
+      <c r="B185"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
-      <c r="B186"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
+      <c r="B187"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
-      <c r="B188"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
+      <c r="B189"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
-      <c r="B190"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
+      <c r="B191"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
-      <c r="B192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
+      <c r="B193"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
-      <c r="B194"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
+      <c r="B195"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
-      <c r="B196"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
+      <c r="B197"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
-      <c r="B198"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
+      <c r="B199"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
-      <c r="B200"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
+      <c r="B201"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
-      <c r="B202"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
+      <c r="B203"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
-      <c r="B204"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
+      <c r="B205"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
-      <c r="B206"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
+      <c r="B207"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
-      <c r="B208"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
+      <c r="B209"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
-      <c r="B210"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
+      <c r="B211"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
-      <c r="B212"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
+      <c r="B213"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
-      <c r="B214"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
+      <c r="B215"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
-      <c r="B216"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
+      <c r="B217"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
-      <c r="B218"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
+      <c r="B219"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
-      <c r="B220"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
+      <c r="B221"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
-      <c r="B222"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
+      <c r="B223"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
-      <c r="B224"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
+      <c r="B225"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
-      <c r="B226"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
+      <c r="B227"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
-      <c r="B228"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
+      <c r="B229"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
-      <c r="B230"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
+      <c r="B231"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
-      <c r="B232"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
+      <c r="B233"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
-      <c r="B234"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
+      <c r="B235"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
-      <c r="B236"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
+      <c r="B237"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
-      <c r="B238"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
+      <c r="B239"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
-      <c r="B240"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
+      <c r="B241"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
-      <c r="B242"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
+      <c r="B243"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
-      <c r="B244"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
+      <c r="B245"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
-      <c r="B246"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
+      <c r="B247"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
-      <c r="B248"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
+      <c r="B249"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
-      <c r="B250"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
+      <c r="B251"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
-      <c r="B252"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
+      <c r="B253"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
-      <c r="B254"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
+      <c r="B255"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
-      <c r="B256"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
+      <c r="B257"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
-      <c r="B258"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
+      <c r="B259"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
-      <c r="B260"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
+      <c r="B261"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
-      <c r="B262"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
+      <c r="B263"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
-      <c r="B264"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
+      <c r="B265"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
-      <c r="B266"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
+      <c r="B267"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
-      <c r="B268"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
+      <c r="B269"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
-      <c r="B270"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
+      <c r="B271"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
-      <c r="B272"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
+      <c r="B273"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
-      <c r="B274"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
+      <c r="B275"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
-      <c r="B276"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
+      <c r="B277"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
-      <c r="B278"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
+      <c r="B279"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
-      <c r="B280"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
+      <c r="B281"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
-      <c r="B282"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
+      <c r="B283"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
-      <c r="B284"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
+      <c r="B285"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
-      <c r="B286"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
+      <c r="B287"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
-      <c r="B288"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
+      <c r="B289"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
-      <c r="B290"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
+      <c r="B291"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
-      <c r="B292"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
+      <c r="B293"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
-      <c r="B294"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
+      <c r="B295"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
-      <c r="B296"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
+      <c r="B297"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
-      <c r="B298"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
+      <c r="B299"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
-      <c r="B300"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
+      <c r="B301"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
-      <c r="B302"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
+      <c r="B303"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
-      <c r="B304"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+      <c r="B305"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+      <c r="B307"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+      <c r="B309"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -567,82 +567,6 @@
       <t>40005</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜汤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>荔枝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧猪蹄</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍珠粉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>油布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>银针</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>簪子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>报时妆奁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>送子观音</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红绸子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>貂毛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨衣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤袍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛神服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼服</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -754,7 +678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -782,13 +706,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1222,7 +1139,7 @@
   <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A34" sqref="A34:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1210,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
         <v>13</v>
@@ -1303,7 +1220,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
@@ -1313,7 +1230,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
@@ -1323,7 +1240,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
@@ -1333,7 +1250,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>12</v>
@@ -1563,12 +1480,8 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>20001</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="A34"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1578,12 +1491,8 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>20002</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A35"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1593,12 +1502,8 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>20003</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -1608,12 +1513,8 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>20004</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1623,12 +1524,8 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>20005</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1638,12 +1535,8 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>20006</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A39"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1653,12 +1546,8 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>30001</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="A40"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1668,12 +1557,8 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>30002</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="A41"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -1683,12 +1568,8 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>30003</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="A42"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -1698,12 +1579,8 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>30004</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1713,12 +1590,8 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>30005</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="A44"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -1728,12 +1601,8 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>30006</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="A45"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -1743,12 +1612,8 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>30007</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="A46"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1758,12 +1623,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>30008</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="A47"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -1773,12 +1634,8 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>40001</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="A48"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1788,12 +1645,8 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>40002</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="A49"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -1803,12 +1656,8 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>40003</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="A50"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -1818,12 +1667,8 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>40004</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A51"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1833,12 +1678,8 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>40005</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="A52"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>

--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A52"/>
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1373,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>

--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -671,6 +671,10 @@
       </rPr>
       <t>1</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1143,7 @@
   <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+      <selection activeCell="B21" sqref="B21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1158,6 +1162,9 @@
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1345,6 +1352,9 @@
       <c r="B19" s="5">
         <v>2</v>
       </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
     </row>
@@ -1353,6 +1363,9 @@
         <v>34</v>
       </c>
       <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="D20" s="9"/>
@@ -1365,6 +1378,7 @@
       <c r="B21" s="5">
         <v>11</v>
       </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
@@ -1375,6 +1389,9 @@
       <c r="B22" s="5">
         <v>2</v>
       </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
@@ -1383,6 +1400,9 @@
         <v>37</v>
       </c>
       <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5">
         <v>3</v>
       </c>
       <c r="D23" s="9"/>
@@ -1393,6 +1413,9 @@
         <v>38</v>
       </c>
       <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
         <v>2</v>
       </c>
       <c r="D24" s="9"/>

--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Travel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -675,6 +676,146 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后宫卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜汤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧猪蹄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠粉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>油布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银针</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>簪子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报时妆奁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>送子观音</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红绸子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂毛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨衣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞保护茉莉花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茉莉花遭雨淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女感冒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻时的富察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃醉酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞陪皇后赏花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤心离别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察容音看书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察容音赏花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼时富察容音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节欢聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令后cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富璎cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞入宫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +823,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -710,6 +851,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1143,7 +1291,7 @@
   <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1153,6 +1301,7 @@
     <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1180,11 +1329,6 @@
         <v>23</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1200,10 +1344,6 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1213,7 +1353,6 @@
         <v>1</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1223,7 +1362,6 @@
         <v>13</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1233,7 +1371,6 @@
         <v>6</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1243,7 +1380,6 @@
         <v>4</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1253,7 +1389,6 @@
         <v>7</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1263,7 +1398,6 @@
         <v>12</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1273,7 +1407,6 @@
         <v>3</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -1283,7 +1416,6 @@
         <v>2</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -1293,7 +1425,6 @@
         <v>3</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -1303,7 +1434,6 @@
         <v>10</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1313,7 +1443,6 @@
         <v>3</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1323,7 +1452,6 @@
         <v>2</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1333,7 +1461,6 @@
         <v>9</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1343,7 +1470,6 @@
         <v>8</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1356,7 +1482,6 @@
         <v>2</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -1369,7 +1494,6 @@
         <v>3</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -1380,7 +1504,6 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -1393,7 +1516,6 @@
         <v>2</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1406,7 +1528,6 @@
         <v>3</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -1419,7 +1540,6 @@
         <v>2</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1429,7 +1549,6 @@
         <v>9</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1439,7 +1558,6 @@
         <v>3</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -1449,7 +1567,6 @@
         <v>5</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -1459,7 +1576,6 @@
         <v>3</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -1469,12 +1585,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31"/>
@@ -2696,4 +2810,410 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9">
+        <v>10001</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+      <c r="D10">
+        <v>20001</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="8"/>
+      <c r="D11">
+        <v>20002</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+      <c r="D12">
+        <v>20003</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="8"/>
+      <c r="D13">
+        <v>20004</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="8"/>
+      <c r="D14">
+        <v>20005</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="8"/>
+      <c r="D15">
+        <v>20006</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="8"/>
+      <c r="D16">
+        <v>30001</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="8"/>
+      <c r="D17">
+        <v>30002</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="8"/>
+      <c r="D18">
+        <v>30003</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="8"/>
+      <c r="D19">
+        <v>30004</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="8"/>
+      <c r="D20">
+        <v>30005</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="8"/>
+      <c r="D21">
+        <v>30006</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="8"/>
+      <c r="D22">
+        <v>30007</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="8"/>
+      <c r="D23">
+        <v>30008</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="8"/>
+      <c r="D24">
+        <v>40001</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+      <c r="D25">
+        <v>40002</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" s="8"/>
+      <c r="D26">
+        <v>40003</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="8"/>
+      <c r="D27">
+        <v>40004</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="8"/>
+      <c r="D28">
+        <v>40005</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="8"/>
+      <c r="D29">
+        <v>50001</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/excel/Travel.xlsx
+++ b/docs/excel/Travel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Travel" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -585,6 +585,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_40001</t>
     </r>
@@ -598,6 +599,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_4000</t>
     </r>
@@ -619,6 +621,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_4000</t>
     </r>
@@ -640,6 +643,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_4000</t>
     </r>
@@ -661,6 +665,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>_4000</t>
     </r>
@@ -816,6 +821,10 @@
   </si>
   <si>
     <t>璎珞入宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003_20006_40002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +832,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -858,6 +867,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -918,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,6 +963,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1288,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1400,225 +1418,223 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>3</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5">
         <v>9</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>8</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
       </c>
       <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="5">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B26" s="5">
         <v>9</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>8</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1684,7 +1700,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1737,20 +1753,20 @@
       <c r="H44" s="9"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="13"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1772,7 +1788,7 @@
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48"/>
-      <c r="B48" s="12"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1792,15 +1808,15 @@
       <c r="H49" s="9"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -1827,27 +1843,35 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54"/>
-      <c r="B54"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55"/>
+      <c r="B55"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56"/>
-      <c r="B56"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57"/>
+      <c r="B57"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58"/>
-      <c r="B58"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59"/>
+      <c r="B59"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60"/>
@@ -1890,833 +1914,836 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
-      <c r="B73"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
+      <c r="B74"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
-      <c r="B75"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
+      <c r="B76"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="B77"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
+      <c r="B78"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
-      <c r="B79"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
+      <c r="B80"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
-      <c r="B81"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
+      <c r="B82"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
-      <c r="B83"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
+      <c r="B84"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
-      <c r="B85"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
+      <c r="B86"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
-      <c r="B87"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
+      <c r="B88"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
-      <c r="B89"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
+      <c r="B90"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
-      <c r="B91"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
+      <c r="B92"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
-      <c r="B93"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
+      <c r="B94"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
-      <c r="B95"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
+      <c r="B96"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
-      <c r="B97"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
+      <c r="B98"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
-      <c r="B99"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
+      <c r="B100"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
-      <c r="B101"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
+      <c r="B102"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
-      <c r="B103"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
+      <c r="B104"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
-      <c r="B105"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
+      <c r="B106"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
-      <c r="B107"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
+      <c r="B108"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
-      <c r="B109"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
+      <c r="B110"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
-      <c r="B111"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
+      <c r="B112"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
-      <c r="B113"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
+      <c r="B114"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
-      <c r="B115"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
+      <c r="B116"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
-      <c r="B117"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
+      <c r="B118"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
-      <c r="B119"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
+      <c r="B120"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
-      <c r="B121"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
+      <c r="B122"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
-      <c r="B123"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
+      <c r="B124"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
-      <c r="B125"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
+      <c r="B126"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
-      <c r="B127"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
+      <c r="B128"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
-      <c r="B129"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
+      <c r="B130"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
-      <c r="B131"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
+      <c r="B132"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
-      <c r="B133"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
+      <c r="B134"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
-      <c r="B135"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
+      <c r="B136"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
-      <c r="B137"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
+      <c r="B138"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
-      <c r="B139"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
+      <c r="B140"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
-      <c r="B141"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
+      <c r="B142"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
-      <c r="B143"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
+      <c r="B144"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
-      <c r="B145"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
+      <c r="B146"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
-      <c r="B147"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
+      <c r="B148"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
-      <c r="B149"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
+      <c r="B150"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
-      <c r="B151"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
+      <c r="B152"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
-      <c r="B153"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
+      <c r="B154"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
-      <c r="B155"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
+      <c r="B156"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
-      <c r="B157"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
+      <c r="B158"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
-      <c r="B159"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
+      <c r="B160"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
-      <c r="B161"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
+      <c r="B162"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
-      <c r="B163"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
+      <c r="B164"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
-      <c r="B165"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
+      <c r="B166"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
-      <c r="B167"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
+      <c r="B168"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
-      <c r="B169"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
+      <c r="B170"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
-      <c r="B171"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
+      <c r="B172"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
-      <c r="B173"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
+      <c r="B174"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
-      <c r="B175"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
+      <c r="B176"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
-      <c r="B177"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
+      <c r="B178"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
-      <c r="B179"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
+      <c r="B180"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
-      <c r="B181"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
+      <c r="B182"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
-      <c r="B183"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
+      <c r="B184"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
-      <c r="B185"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
+      <c r="B186"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
-      <c r="B187"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
+      <c r="B188"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
-      <c r="B189"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
+      <c r="B190"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
-      <c r="B191"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
+      <c r="B192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
-      <c r="B193"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
+      <c r="B194"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
-      <c r="B195"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
+      <c r="B196"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
-      <c r="B197"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
+      <c r="B198"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
-      <c r="B199"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
+      <c r="B200"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
-      <c r="B201"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
+      <c r="B202"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
-      <c r="B203"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
+      <c r="B204"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
-      <c r="B205"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
+      <c r="B206"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
-      <c r="B207"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
+      <c r="B208"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
-      <c r="B209"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
+      <c r="B210"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
-      <c r="B211"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
+      <c r="B212"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
-      <c r="B213"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
+      <c r="B214"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
-      <c r="B215"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
+      <c r="B216"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
-      <c r="B217"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
+      <c r="B218"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
-      <c r="B219"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
+      <c r="B220"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
-      <c r="B221"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
+      <c r="B222"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
-      <c r="B223"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
+      <c r="B224"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
-      <c r="B225"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
+      <c r="B226"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
-      <c r="B227"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
+      <c r="B228"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
-      <c r="B229"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
+      <c r="B230"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
-      <c r="B231"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
+      <c r="B232"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
-      <c r="B233"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
+      <c r="B234"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
-      <c r="B235"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
+      <c r="B236"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
-      <c r="B237"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
+      <c r="B238"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
-      <c r="B239"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
+      <c r="B240"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
-      <c r="B241"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
+      <c r="B242"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
-      <c r="B243"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
+      <c r="B244"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
-      <c r="B245"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
+      <c r="B246"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
-      <c r="B247"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
+      <c r="B248"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
-      <c r="B249"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
+      <c r="B250"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
-      <c r="B251"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
+      <c r="B252"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
-      <c r="B253"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
+      <c r="B254"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
-      <c r="B255"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
+      <c r="B256"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
-      <c r="B257"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
+      <c r="B258"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
-      <c r="B259"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
+      <c r="B260"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
-      <c r="B261"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
+      <c r="B262"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
-      <c r="B263"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
+      <c r="B264"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
-      <c r="B265"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
+      <c r="B266"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
-      <c r="B267"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
+      <c r="B268"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
-      <c r="B269"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
+      <c r="B270"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
-      <c r="B271"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
+      <c r="B272"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
-      <c r="B273"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
+      <c r="B274"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
-      <c r="B275"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
+      <c r="B276"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
-      <c r="B277"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
+      <c r="B278"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
-      <c r="B279"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
+      <c r="B280"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
-      <c r="B281"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
+      <c r="B282"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
-      <c r="B283"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
+      <c r="B284"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
-      <c r="B285"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
+      <c r="B286"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
-      <c r="B287"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
+      <c r="B288"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
-      <c r="B289"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
+      <c r="B290"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
-      <c r="B291"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
+      <c r="B292"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
-      <c r="B293"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
+      <c r="B294"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
-      <c r="B295"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
+      <c r="B296"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
-      <c r="B297"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
+      <c r="B298"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
-      <c r="B299"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
+      <c r="B300"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
-      <c r="B301"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
+      <c r="B302"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
-      <c r="B303"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
+      <c r="B304"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305"/>
-      <c r="B305"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306"/>
+      <c r="B306"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307"/>
-      <c r="B307"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308"/>
+      <c r="B308"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309"/>
-      <c r="B309"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310"/>
+      <c r="B310"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2816,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2841,7 +2868,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9">
+      <c r="G9" s="15">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -2910,7 +2937,7 @@
       <c r="E12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="15">
         <v>4</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -2940,6 +2967,9 @@
       <c r="H13" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="K13" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="8"/>
@@ -2949,7 +2979,7 @@
       <c r="E14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="15">
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2973,7 +3003,7 @@
       <c r="E15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="15">
         <v>7</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -3075,7 +3105,7 @@
       <c r="E20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="15">
         <v>12</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -3099,7 +3129,7 @@
       <c r="E21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="15">
         <v>13</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -3123,11 +3153,20 @@
       <c r="E22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="15">
         <v>14</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>84</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
